--- a/IP-List.xlsx
+++ b/IP-List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>IP</t>
   </si>
@@ -28,6 +28,30 @@
   </si>
   <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t>HOST ALIVE</t>
+  </si>
+  <si>
+    <t>NOT RESPONDING</t>
+  </si>
+  <si>
+    <t>91.135.103.11</t>
+  </si>
+  <si>
+    <t>2.55.65.11</t>
+  </si>
+  <si>
+    <t>2.55.101.12</t>
+  </si>
+  <si>
+    <t>2.55.75.2</t>
+  </si>
+  <si>
+    <t>109.253.5.8</t>
+  </si>
+  <si>
+    <t>2.55.75.11</t>
   </si>
 </sst>
 </file>
@@ -73,12 +97,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -107,12 +143,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -244,6 +310,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="E3:F4" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <tableColumns count="2">
+    <tableColumn id="1" name="HOST ALIVE" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF($B:$B,"True")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="NOT RESPONDING" dataDxfId="1">
+      <calculatedColumnFormula>COUNTIF($B:$B,"False")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:F350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C457"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,9 +600,11 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,6 +613,68 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <f>COUNTIF($B:$B,"True")</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <f>COUNTIF($B:$B,"False")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
@@ -1268,41 +1412,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A351:A1048576 A143 A1:A101">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:A123">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A142">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A200">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201:A273">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A285:A288">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274:A288">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289:A308">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A309:A310">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A311:A350">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A169">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>